--- a/updated_BusinessData.xlsx
+++ b/updated_BusinessData.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATLANTA EAST</t>
+          <t>'ATLANTA EAST'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHICAGO CENTRAL</t>
+          <t>'CHICAGO CENTRAL'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LOS ANGELES WEST</t>
+          <t>'LOS ANGELES WEST'</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DALLAS CENTRAL</t>
+          <t>'DALLAS CENTRAL'</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIAMI EAST</t>
+          <t>'MIAMI EAST'</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO WEST</t>
+          <t>'SAN FRANCISCO WEST'</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LAS VEGAS WEST</t>
+          <t>'LAS VEGAS WEST'</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BOSTON EAST</t>
+          <t>'BOSTON EAST'</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SEATTLE WEST</t>
+          <t>'SEATTLE WEST'</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DENVER MOUNTAIN</t>
+          <t>'DENVER MOUNTAIN'</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AUSTIN CENTRAL</t>
+          <t>'AUSTIN CENTRAL'</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHOENIX MOUNTAIN</t>
+          <t>'PHOENIX MOUNTAIN'</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HOUSTON CENTRAL</t>
+          <t>'HOUSTON CENTRAL'</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ORLANDO EAST</t>
+          <t>'ORLANDO EAST'</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WASHINGTON DC EAST</t>
+          <t>'WASHINGTON DC EAST'</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAN DIEGO WEST</t>
+          <t>'SAN DIEGO WEST'</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NEW ORLEANS CENTRAL</t>
+          <t>'NEW ORLEANS CENTRAL'</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PHILADELPHIA EAST</t>
+          <t>'PHILADELPHIA EAST'</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PORTLAND WEST</t>
+          <t>'PORTLAND WEST'</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NEW YORK EAST</t>
+          <t>'NEW YORK EAST'</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
